--- a/spec/ASW/Eng/ETS/TrqCnv/CnvSet/CnvSet_Trq2Q/CnvSet_Trq2Q.xlsx
+++ b/spec/ASW/Eng/ETS/TrqCnv/CnvSet/CnvSet_Trq2Q/CnvSet_Trq2Q.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\ETS\TrqCnv\CnvSet\CnvSet_Trq2Q\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FBD709-14CF-4F4C-BD54-706512286E12}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,261 @@
   <si>
     <t>InitialValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PthSet_trqInrSet</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Inner torque set value after monitoring limitation</t>
+  </si>
+  <si>
+    <t>StSys_trqStrt</t>
+  </si>
+  <si>
+    <t>Engine starting torque</t>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>CoEng_stShutOffPath</t>
+  </si>
+  <si>
+    <t>Active shut-off paths resulting from active reversible,irreversible and afterrun shut-off paths</t>
+  </si>
+  <si>
+    <t>PhyMod_facEtaCor</t>
+  </si>
+  <si>
+    <t>PhyMod_facEtaCorNxt</t>
+  </si>
+  <si>
+    <t>PhyMod_qCor</t>
+  </si>
+  <si>
+    <t>mg/hub</t>
+  </si>
+  <si>
+    <t>Correction quantity</t>
+  </si>
+  <si>
+    <t>PhyMod_stPrs</t>
+  </si>
+  <si>
+    <t>Current operating mode for the torque structure</t>
+  </si>
+  <si>
+    <t>PhyMod_stNxt</t>
+  </si>
+  <si>
+    <t>Next operating mode for the torque structure</t>
+  </si>
+  <si>
+    <t>CoEOM_facRmpVal</t>
+  </si>
+  <si>
+    <t>Central ramp value for operation mode change</t>
+  </si>
+  <si>
+    <t>CnvSet_qSetPrs</t>
+  </si>
+  <si>
+    <t>Setpoint injection quantity current operation mode</t>
+  </si>
+  <si>
+    <t>CnvSet_etaCurrRmp</t>
+  </si>
+  <si>
+    <t>Nm/(mg/hub)</t>
+  </si>
+  <si>
+    <t>Conversion efficiency corresponding to CnvSet_qSet</t>
+  </si>
+  <si>
+    <t>CnvSet_qSet</t>
+  </si>
+  <si>
+    <t>Set point injection quantity</t>
+  </si>
+  <si>
+    <t>CnvSet_qSetNxt</t>
+  </si>
+  <si>
+    <t>Setpoint injection quantity next opration mode</t>
+  </si>
+  <si>
+    <t>CnvSet_qStrt</t>
+  </si>
+  <si>
+    <t>Injection start quantity</t>
+  </si>
+  <si>
+    <t>CnvSet_facRmpVal</t>
+  </si>
+  <si>
+    <t>ramp value for operation mode switchover</t>
+  </si>
+  <si>
+    <t>CnvSet_etaCurr</t>
+  </si>
+  <si>
+    <t>Current conversion efficiency</t>
+  </si>
+  <si>
+    <t>CnvSet_etaCurrNxt</t>
+  </si>
+  <si>
+    <t>conversion efficiency for next operation mode</t>
+  </si>
+  <si>
+    <t>PthSet_trqInrSetAct</t>
+  </si>
+  <si>
+    <t>Current inner engine torque</t>
+  </si>
+  <si>
+    <t>CnvSet_qSetOpt_mp</t>
+  </si>
+  <si>
+    <t>Setpoint injection quantity without corrections</t>
+  </si>
+  <si>
+    <t>CnvSet_qSetOptNxt_mp</t>
+  </si>
+  <si>
+    <t>Setpoint injection quantity without corrections next operation mode</t>
+  </si>
+  <si>
+    <t>CnvSet_eta0_C</t>
+  </si>
+  <si>
+    <t>Conversion efficiency during start</t>
+  </si>
+  <si>
+    <t>CnvSet_facRmpVal_CURX</t>
+  </si>
+  <si>
+    <t>[1 11]</t>
+  </si>
+  <si>
+    <t>[0 0.1 0.2 0.3 0.4 0.5 0.6 0.7 0.8 0.9 1]</t>
+  </si>
+  <si>
+    <t>AxisX of the Curve</t>
+  </si>
+  <si>
+    <t>CnvSet_facRmpVal_CUR</t>
+  </si>
+  <si>
+    <t>[0 0.1 0.2 0.3 0.4 0.5 0.6 0.7 0.8 0.8 1]</t>
+  </si>
+  <si>
+    <t>PhyMod_trq2qBas_MAPX</t>
+  </si>
+  <si>
+    <t>[1 16]</t>
+  </si>
+  <si>
+    <t>[250 500 750 1000 1250 1500 1750 2000 2250 2500 2750 3000 3500 4000 4500 5000]</t>
+  </si>
+  <si>
+    <t>AxisX of the MAP</t>
+  </si>
+  <si>
+    <t>PhyMod_trq2qBas_MAPY</t>
+  </si>
+  <si>
+    <t>[0 30 60 90 120 150 180 210 240 270 300 330 360 390 420 450]</t>
+  </si>
+  <si>
+    <t>AxisY of the MAP</t>
+  </si>
+  <si>
+    <t>PhyMod_trq2qBas_MAP</t>
+  </si>
+  <si>
+    <t>[16 16]</t>
+  </si>
+  <si>
+    <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;
+6.3 5.8 5.4 5.6 5.8 6.1 6.1 6 6 6 6.1 6.3 6.5 6.7 6.9 7.16;
+12.7 12.1 11.5 12 12.1 12.2 12 11.7 11.7 11.8 12 12.3 12.6 12.8 13 13.26;
+17.5 16.76 16 16.6 16.8 16.9 16.7 16.5 16.4 16.4 16.5 16.9 17.6 18.2 18.4 18.66;
+24.7 23.5 22.3 20.5 20.9 21.3 21.3 21.3 21.5 21.7 21.7 21.7 22.2 22.3 22.5 22.76;
+31.5 30.46 29.4 27.4 26.6 25.8 26.3 26.8 26.9 27 27.1 27.2 28 28.8 29 29.26;
+37.5 36.7 36.3 34.9 34.6 34.3 34 33.7 33.86 34 33.66 33.3 33.96 34.6 34.8 35.06;
+46.1 45 43.6 40.8 40.46 40.1 40.3 40.3 40.3 40.1 40.2 40.3 41.4 42.5 42.7 42.96;
+57.2 53.36 52.6 47.6 46.96 46.3 46.06 45.8 46.36 46.9 47.4 47.9 49.4 50.9 51.1 51.36;
+63.06 62.06 61.3 54.5 53.7 52.9 52.86 52.8 52.86 52.9 53.76 54.6 55.7 56.8 57 57.26;
+71.16 70.16 69.4 60.8 60.3 60.1 60.1 60.4 60.4 60.4 61.3 62.2 62.9 63.6 63.8 64.06;
+79.26 78.26 77.5 67.3 67.1 66.8 67.6 68.4 69.7 71 71.5 72 72.5 73 73.5 74.06;
+87.36 86.36 85.6 74.8 74.16 73.76 75.34 76.66 79.26 81.84 81.96 82.06 82.36 82.66 83.16 83.7;
+95.46 94.46 93.7 82.8 81.46 80.96 83.36 85.16 89.06 92.96 92.66 92.36 92.46 92.56 93.06 93.6;
+103.56 102.56 101.8 89.8 89 88.4 91.6 93.9 99.1 104.3 103.6 102.9 102.8 102.7 103.2 103.76;
+111.66 110.66 109.9 97.8 96.8 96.1 100.1 102.9 109.4 115.9 114.8 113.7 113.4 113.1 113.6 114.16]</t>
+  </si>
+  <si>
+    <t>Engine basic map for conversion of torque/quantity</t>
+  </si>
+  <si>
+    <t>CnvSet_etaMin_C</t>
+  </si>
+  <si>
+    <t>Current conversion efficiency max limation</t>
+  </si>
+  <si>
+    <t>CnvSet_etaMax_C</t>
+  </si>
+  <si>
+    <t>Current conversion efficiency min limation</t>
+  </si>
+  <si>
+    <t>INJ_MASS_ZERO</t>
+  </si>
+  <si>
+    <t>no injection</t>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>State2</t>
+  </si>
+  <si>
+    <t>Fac_10</t>
+  </si>
+  <si>
+    <t>Current efficiency correction Fac_10</t>
+  </si>
+  <si>
+    <t>next efficiency correction Fac_10</t>
+  </si>
+  <si>
+    <t>Curve of ramp-Fac_10 for switch over ramp</t>
+  </si>
+  <si>
+    <t>InjMass</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Effcy</t>
   </si>
 </sst>
 </file>
@@ -458,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +756,248 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-30</v>
+      </c>
+      <c r="C6" s="5">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C8" s="5">
+        <v>319</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>255</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>255</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-31</v>
+      </c>
+      <c r="C11" s="5">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +1051,237 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C2" s="5">
+        <v>319</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C4" s="5">
+        <v>319</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C5" s="5">
+        <v>319</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C6" s="5">
+        <v>319</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1334,58 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C2" s="5">
+        <v>319</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C3" s="5">
+        <v>319</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +1397,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,17 +1437,207 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-31</v>
+      </c>
+      <c r="C3" s="5">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-12000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C7" s="5">
+        <v>319</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="6"/>
@@ -726,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,6 +1729,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
